--- a/biology/Zoologie/Crassignatha_danaugirangensis/Crassignatha_danaugirangensis.xlsx
+++ b/biology/Zoologie/Crassignatha_danaugirangensis/Crassignatha_danaugirangensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crassignatha danaugirangensis est une espèce d'araignées aranéomorphes de la famille des Symphytognathidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crassignatha danaugirangensis est une espèce d'araignées aranéomorphes de la famille des Symphytognathidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bornéo[1]. Elle se rencontre en Malaisie au Sabah[2] et au Brunei[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bornéo. Elle se rencontre en Malaisie au Sabah et au Brunei.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 0,7 mm et la femelle paratype 0,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 0,7 mm et la femelle paratype 0,9 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Toile</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette araignée construit une toile horizontale de 40 mm de diamètre près du sol[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette araignée construit une toile horizontale de 40 mm de diamètre près du sol.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de danaugirang et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Danau Girang Field Centre.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Miller, Schilthuizen, Lilliendahl Burmester, van der Graaf, Merckx, Jocqué, Kessler, Fayle, Breeschoten, Broeren, Bouman, Chua, Feijen, Fermont, Groen, Groen, Kil, de Laat, Moerland, Moncoquet, Panjang, Philip, Roca-Eriksen, Rooduijn, van Santen, Swakman, Evans, Evans, Love, Joscelyne, Tober, Wilson, Ambu &amp; Goossens, 2014 : « Dispatch from the field: ecology of ground-web-building spiders with description of a new species (Araneae, Symphytognathidae). » Biodiversity Data Journal, vol. 2, no e1076, p. 1-13 (texte intégral).</t>
         </is>
